--- a/biology/Médecine/Didier_Lauru/Didier_Lauru.xlsx
+++ b/biology/Médecine/Didier_Lauru/Didier_Lauru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didier Lauru, né en 1952, est un psychiatre, psychanalyste et essayiste français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Didier Lauru soutient sa thèse de médecine en 1981, à l'université Paris VII Bichat Beaujon[1], il se spécialise et réalise un mémoire de CES de psychiatrie. Il soutient une thèse de doctorat de psychopathologie et de psychanalyse à l'université Paris Diderot. 
-Il est spécialiste de la psychanalyse des adultes et des questions adolescentes, et est médecin-directeur du CMPP Étienne-Marcel à Paris[2]. Il exerce en libéral à Paris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Didier Lauru soutient sa thèse de médecine en 1981, à l'université Paris VII Bichat Beaujon, il se spécialise et réalise un mémoire de CES de psychiatrie. Il soutient une thèse de doctorat de psychopathologie et de psychanalyse à l'université Paris Diderot. 
+Il est spécialiste de la psychanalyse des adultes et des questions adolescentes, et est médecin-directeur du CMPP Étienne-Marcel à Paris. Il exerce en libéral à Paris.
 Il est psychanalyste, membre de l'association Espace analytique, où il est responsable de la commission des enseignements.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Activités scientifiques et éditoriales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dirige la revue Enfances &amp; psy. Il est l'auteur de nombreux articles et d'ouvrages sur l'amour, la relation entre père-fille, sur la sexualité infantile et sur la haine. Didier Lauru est notamment intervenu dans des colloques de psychanalyse ou de psychiatrie en France ou à l'étranger.
 </t>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De la haine de soi à la haine de l'autre, Albin Michel, 2015.
 Le poids du corps à l'adolescence, Albin Michel, 2014.
